--- a/biology/Médecine/Arthur_Guedel/Arthur_Guedel.xlsx
+++ b/biology/Médecine/Arthur_Guedel/Arthur_Guedel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthur E. Guedel était un médecin anesthésiste américain, né le 13 juin 1883 à Cambridge City (Indiana, États-Unis), mort le 10 juin 1956 à Los Angeles.
 Il est l'inventeur de la canule qui porte son nom (voir l'article Canule de Guedel).
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que sa famille n'ait pas pu lui financer ses études, il réussit l'examen d'entrée au Medical College of Indiana en 1903, dont il sort diplômé en 1908. Il épouse Florence Dorothy, avec qui il aura deux filles. Il fait son internat à l'hôpital d'Indianapolis où il pratique l'anesthésie (à l'époque avec de l'éther et du chloroforme), puis s'installe en médecine générale libérale.
 Durant la Première Guerre mondiale, il fait partie des forces expéditionnaires américaines en France, où il pratique et enseigne l'anesthésie.
